--- a/Team-Data/2008-09/2-10-2008-09.xlsx
+++ b/Team-Data/2008-09/2-10-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588</v>
+        <v>0.58</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
@@ -693,43 +760,43 @@
         <v>7.8</v>
       </c>
       <c r="M2" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
         <v>0.372</v>
       </c>
       <c r="O2" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P2" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.737</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
         <v>20.2</v>
@@ -738,16 +805,16 @@
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -756,37 +823,37 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,13 +862,13 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -810,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
         <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
         <v>77.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -908,25 +975,25 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -962,19 +1029,19 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1147,25 +1214,25 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>14</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1297,7 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
         <v>0.45</v>
@@ -1242,31 +1309,31 @@
         <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
         <v>0.783</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,7 +1345,7 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
         <v>20.3</v>
@@ -1287,10 +1354,10 @@
         <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1311,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>9</v>
@@ -1332,19 +1399,19 @@
         <v>9</v>
       </c>
       <c r="AR5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1365,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1409,10 +1476,10 @@
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.473</v>
@@ -1421,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
         <v>0.383</v>
@@ -1430,49 +1497,49 @@
         <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
@@ -1487,16 +1554,16 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,16 +1572,16 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,19 +1590,19 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J7" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O7" t="n">
         <v>17.7</v>
@@ -1615,7 +1682,7 @@
         <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
@@ -1627,13 +1694,13 @@
         <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
@@ -1642,22 +1709,22 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>5</v>
@@ -1681,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1696,16 +1763,16 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J8" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
         <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
         <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>5.8</v>
@@ -1824,19 +1891,19 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,22 +1918,22 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>0.54</v>
+        <v>0.551</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O9" t="n">
         <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.748</v>
@@ -1985,7 +2052,7 @@
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T9" t="n">
         <v>40.6</v>
@@ -1994,7 +2061,7 @@
         <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2006,31 +2073,31 @@
         <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2051,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
         <v>25</v>
@@ -2075,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX9" t="n">
         <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.34</v>
+        <v>0.327</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="O10" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="P10" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R10" t="n">
         <v>11.9</v>
@@ -2173,10 +2240,10 @@
         <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -2191,16 +2258,16 @@
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.5</v>
+        <v>106.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.7</v>
+        <v>-4.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2209,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>5</v>
@@ -2218,19 +2285,19 @@
         <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2248,13 +2315,13 @@
         <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>22</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2397,7 +2464,7 @@
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2424,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>0.396</v>
+        <v>0.385</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J12" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
         <v>0.452</v>
@@ -2516,13 +2583,13 @@
         <v>21.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q12" t="n">
         <v>0.8100000000000001</v>
@@ -2531,19 +2598,19 @@
         <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2552,52 +2619,52 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.9</v>
       </c>
       <c r="AC12" t="n">
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO12" t="n">
         <v>14</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2609,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2618,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -2865,10 +2932,10 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>84.7</v>
+        <v>84.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,34 +2944,34 @@
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
         <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2913,25 +2980,25 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2991,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>27</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.529</v>
+        <v>0.54</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K16" t="n">
         <v>0.45</v>
@@ -3244,13 +3311,13 @@
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="n">
         <v>0.739</v>
@@ -3265,13 +3332,13 @@
         <v>39.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3283,37 +3350,37 @@
         <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,22 +3389,22 @@
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
       </c>
       <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
         <v>24</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>23</v>
-      </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>25</v>
@@ -3349,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3361,13 +3428,13 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.472</v>
+        <v>0.463</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.7</v>
@@ -3426,13 +3493,13 @@
         <v>16.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.785</v>
@@ -3441,46 +3508,46 @@
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
         <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3492,19 +3559,19 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
@@ -3516,13 +3583,13 @@
         <v>8</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
@@ -3531,13 +3598,13 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
@@ -3546,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,19 +3663,19 @@
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
         <v>18.9</v>
@@ -3617,37 +3684,37 @@
         <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
         <v>98.7</v>
@@ -3656,16 +3723,16 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF18" t="n">
         <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
         <v>9</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
@@ -3695,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
@@ -3704,16 +3771,16 @@
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
@@ -3728,10 +3795,10 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -3760,100 +3827,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>0.453</v>
+        <v>0.462</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
         <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O19" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P19" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q19" t="n">
         <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U19" t="n">
         <v>19.5</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3862,25 +3929,25 @@
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>8</v>
       </c>
       <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
         <v>14</v>
       </c>
-      <c r="AP19" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
@@ -3895,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>8</v>
@@ -4047,7 +4114,7 @@
         <v>8</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4056,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4083,7 +4150,7 @@
         <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J21" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>10.4</v>
@@ -4154,7 +4221,7 @@
         <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O21" t="n">
         <v>18</v>
@@ -4163,25 +4230,25 @@
         <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.799</v>
+        <v>0.802</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
         <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4193,31 +4260,31 @@
         <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.7</v>
+        <v>104.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>2</v>
@@ -4244,22 +4311,22 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,16 +4391,16 @@
         <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.373</v>
@@ -4345,19 +4412,19 @@
         <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R22" t="n">
         <v>12.1</v>
       </c>
       <c r="S22" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T22" t="n">
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V22" t="n">
         <v>16.5</v>
@@ -4369,22 +4436,22 @@
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4402,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4414,19 +4481,19 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4584,10 +4651,10 @@
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4602,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
@@ -4796,16 +4863,16 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>7</v>
@@ -4817,13 +4884,13 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>23</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4960,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4969,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
@@ -4990,19 +5057,19 @@
         <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,7 +5149,7 @@
         <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5097,22 +5164,22 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,16 +5191,16 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,28 +5209,28 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP26" t="n">
         <v>15</v>
       </c>
-      <c r="AP26" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5175,7 +5242,7 @@
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5243,31 +5310,31 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>15.7</v>
@@ -5282,7 +5349,7 @@
         <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
         <v>21.8</v>
@@ -5291,10 +5358,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
@@ -5336,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
@@ -5357,7 +5424,7 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.694</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,28 +5483,28 @@
         <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
@@ -5449,10 +5516,10 @@
         <v>40.3</v>
       </c>
       <c r="U28" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V28" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="W28" t="n">
         <v>5.9</v>
@@ -5470,13 +5537,13 @@
         <v>18.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5500,10 +5567,10 @@
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
         <v>34</v>
       </c>
       <c r="G29" t="n">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J29" t="n">
         <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>6.1</v>
@@ -5610,61 +5677,61 @@
         <v>16.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
         <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T29" t="n">
         <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V29" t="n">
         <v>13.2</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -5676,25 +5743,25 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5840,22 +5907,22 @@
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,13 +5949,13 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5906,7 +5973,7 @@
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" t="n">
-        <v>0.212</v>
+        <v>0.216</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,46 +6029,46 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
         <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O31" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P31" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R31" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="T31" t="n">
         <v>39.7</v>
       </c>
       <c r="U31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>3.9</v>
@@ -6016,19 +6083,19 @@
         <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,10 +6104,10 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -6055,31 +6122,31 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>27</v>
@@ -6097,7 +6164,7 @@
         <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-10-2008-09</t>
+          <t>2009-02-10</t>
         </is>
       </c>
     </row>
